--- a/assignment/tran-quang-lam/assignment-webui/Data Files/Excel files/quan-ly-tai-khoan.xlsx
+++ b/assignment/tran-quang-lam/assignment-webui/Data Files/Excel files/quan-ly-tai-khoan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\katalon\assignment\tran-quang-lam\assignment-webui\Data Files\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF39D69-6102-4343-929A-B64B76C18929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86A22E4-1D31-4746-9772-B8B57ABABA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3E52A9FC-35A0-43B7-9378-302461E7D1FE}"/>
   </bookViews>
@@ -119,9 +119,6 @@
     <t>quydo3ka@gmail.com</t>
   </si>
   <si>
-    <t>quydo3k41@gmail.com</t>
-  </si>
-  <si>
     <t>quydo937@gmail.com</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>QLTK05</t>
+  </si>
+  <si>
+    <t>quydo3k44@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,7 +558,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -567,7 +567,7 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -614,13 +614,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -668,7 +668,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -676,10 +676,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>26</v>
@@ -690,25 +690,25 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
